--- a/data/trans_bre/P17_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P17_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -527,6 +527,10 @@
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
     <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,15 +549,19 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -580,32 +588,52 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -622,6 +650,10 @@
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
       <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -636,52 +668,72 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>13,3</t>
+          <t>15,59</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>8,01</t>
+          <t>7,15</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>8,31</t>
+          <t>7,33</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>14,32</t>
+          <t>11,33</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>4,77</t>
+          <t>10,81</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>79,07%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>54,3%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>48,84%</t>
+          <t>119,8%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>84,85%</t>
+          <t>51,04%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>24,3%</t>
+          <t>38,7%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>68,76%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>57,36%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -694,52 +746,72 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,92; 19,76</t>
+          <t>3,66; 25,62</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,38; 15,85</t>
+          <t>-2,65; 17,07</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>1,21; 14,51</t>
+          <t>-0,13; 14,85</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6,72; 24,53</t>
+          <t>5,0; 17,99</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 12,1</t>
+          <t>-0,91; 25,13</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>26,88; 151,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-22,77; 157,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>4,93; 105,86</t>
+          <t>17,53; 331,93</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>30,78; 175,83</t>
+          <t>-16,21; 193,84</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-11,02; 75,22</t>
+          <t>-1,41; 99,25</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>24,32; 136,9</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-3,83; 201,6</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -756,52 +828,72 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>10,18</t>
+          <t>8,76</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5,99</t>
+          <t>7,63</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>5,0</t>
+          <t>6,11</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>5,34</t>
+          <t>5,41</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>12,23</t>
+          <t>3,91</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>76,9%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>94,88%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>57,72%</t>
+          <t>57,28%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>46,92%</t>
+          <t>119,85%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>122,67%</t>
+          <t>66,32%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>45,76%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>25,04%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -814,52 +906,72 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,5; 14,19</t>
+          <t>-0,86; 15,13</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,58; 9,48</t>
+          <t>2,97; 12,4</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,18; 8,36</t>
+          <t>1,72; 10,2</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,0; 9,62</t>
+          <t>0,33; 9,83</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,66; 16,61</t>
+          <t>-5,67; 10,09</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>33,41; 128,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>32,52; 195,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>9,75; 117,14</t>
+          <t>-6,64; 135,43</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>6,38; 107,96</t>
+          <t>29,23; 271,1</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>63,5; 207,08</t>
+          <t>10,63; 142,48</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>0,08; 101,1</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-27,57; 85,22</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -876,52 +988,72 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>5,98</t>
+          <t>12,31</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,68</t>
+          <t>4,69</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,72</t>
+          <t>7,54</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,27</t>
+          <t>5,57</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>4,39</t>
+          <t>1,97</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>57,23%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>26,04%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>78,09%</t>
+          <t>164,82%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>58,1%</t>
+          <t>102,09%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>41,42%</t>
+          <t>123,57%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>61,3%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>17,57%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -934,59 +1066,79 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,03; 10,26</t>
+          <t>6,11; 18,26</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,08; 5,45</t>
+          <t>0,53; 8,77</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,65; 9,61</t>
+          <t>3,93; 11,76</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,34; 9,26</t>
+          <t>1,46; 9,39</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 10,76</t>
+          <t>-5,51; 7,44</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,12; 125,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-32,51; 133,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>14,61; 173,26</t>
+          <t>55,19; 387,61</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>1,27; 133,66</t>
+          <t>5,49; 332,75</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>-14,06; 142,27</t>
+          <t>44,56; 264,06</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>11,56; 140,9</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-36,36; 94,81</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -996,52 +1148,72 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>9,96</t>
+          <t>9,31</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>5,54</t>
+          <t>3,32</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>6,44</t>
+          <t>6,83</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>7,92</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>8,5</t>
+          <t>10,36</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>76,27%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>70,16%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>63,78%</t>
+          <t>68,41%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>67,0%</t>
+          <t>32,39%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>66,24%</t>
+          <t>74,67%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>124,63%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1054,64 +1226,252 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,91; 12,93</t>
+          <t>5,42; 13,11</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>2,12; 8,2</t>
+          <t>-2,75; 7,59</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,9; 8,99</t>
+          <t>1,48; 12,52</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,97; 11,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,16; 11,78</t>
+          <t>5,0; 16,39</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>43,31; 109,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>18,36; 123,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>33,86; 100,83</t>
+          <t>33,92; 115,75</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>36,58; 107,12</t>
+          <t>-19,9; 96,72</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>36,42; 104,3</t>
+          <t>9,42; 187,64</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>43,21; 258,55</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>10,02</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>5,31</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>7,04</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>7,11</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>6,88</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>76,67%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>63,63%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>71,01%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>59,62%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>54,4%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>6,73; 13,02</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>2,32; 7,85</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>4,55; 9,66</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>4,13; 10,25</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>3,35; 10,92</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>43,69; 112,32</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>22,73; 114,2</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>39,27; 110,69</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>29,58; 96,52</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>20,67; 98,99</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:I1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
